--- a/Demo/DB_Design_Demo.xlsx
+++ b/Demo/DB_Design_Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/24899518_sun_ac_za/Documents/Documents/Internship MInt/Project X - Data Flow/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B03048-FF6E-4269-93F4-4A166A53F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F8B03048-FF6E-4269-93F4-4A166A53F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6D725E-7AB2-4849-9EF1-D0829F928B4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C278A48-1C79-4AA1-A7D1-2CAE6E90E431}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>dbo.Users</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>(ETL Script)</t>
+  </si>
+  <si>
+    <t>Mergin dimension ta</t>
   </si>
 </sst>
 </file>
@@ -963,21 +966,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,6 +996,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,7 +1014,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1999,7 +2002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65700AA1-7719-41A4-BBB5-8D8719F63288}">
   <dimension ref="B1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2028,10 +2033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2067,10 +2072,10 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -2086,10 +2091,10 @@
         <v>56</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -2132,10 +2137,10 @@
       <c r="P9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="33" t="s">
+      <c r="X9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="34"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -2200,14 +2205,14 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="O13" s="27" t="s">
+      <c r="L13" s="37"/>
+      <c r="O13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="28"/>
+      <c r="P13" s="37"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
         <v>58</v>
@@ -2297,19 +2302,19 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="43"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="P19" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="30"/>
+      <c r="U19" s="42"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -2318,16 +2323,16 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="41"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="T20" s="35" t="s">
+      <c r="T20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U20" s="36"/>
+      <c r="U20" s="31"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
@@ -2356,10 +2361,10 @@
       <c r="U22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X22" s="31" t="s">
+      <c r="X22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Y22" s="31"/>
+      <c r="Y22" s="26"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
@@ -2370,10 +2375,10 @@
       <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="42"/>
+      <c r="L23" s="39"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1" t="s">
         <v>52</v>
@@ -2466,8 +2471,8 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
       <c r="V28" s="19"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
@@ -2487,11 +2492,14 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="3"/>
-      <c r="Q30" s="32" t="s">
+      <c r="Q30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="32"/>
+      <c r="R30" s="27"/>
       <c r="V30" s="3"/>
+      <c r="Y30" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
@@ -2586,10 +2594,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
       <c r="M38" s="11"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
@@ -2631,6 +2639,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T19:U19"/>
     <mergeCell ref="X22:Y22"/>
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="X9:Y9"/>
@@ -2641,11 +2654,6 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T19:U19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,15 +2663,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100875AB62F11F85E4EB37ADD7FB09C878E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3bedff116f2299017923d3b1e985878">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d1787bf-e494-4f2c-a488-c70cf9238ed5" xmlns:ns4="12411350-c471-4698-9faf-cb46178fc354" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca91ca8e8a4837a4e86b4550dc9cc92a" ns3:_="" ns4:_="">
     <xsd:import namespace="9d1787bf-e494-4f2c-a488-c70cf9238ed5"/>
@@ -2886,6 +2885,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2893,14 +2901,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D83EE1FE-7905-4664-BD45-DDF0DF8886D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177A6C37-11C7-4B0F-9E43-2E566B8B5486}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2915,6 +2915,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D83EE1FE-7905-4664-BD45-DDF0DF8886D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
